--- a/policies.xlsx
+++ b/policies.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive - Hogeschool VIVES\Netwerkbeheer\Kwartaal3\Windows server\mutaties\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_90263FD197D9AE5F0F4DB74C7ACCFCA36A209220" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E8A8B4F1-DA92-4403-B665-B80723608113}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>policy</t>
   </si>
@@ -76,53 +70,32 @@
     <t>14/02/2020</t>
   </si>
   <si>
-    <t>remove and make mapping disabled</t>
-  </si>
-  <si>
-    <t>for safety and so that useers cant make unnecasary changes</t>
-  </si>
-  <si>
-    <t>acces to disk management disabled</t>
-  </si>
-  <si>
-    <t>so users wont accidently or willingly format a whole hard disk</t>
-  </si>
-  <si>
-    <t>firewall</t>
-  </si>
-  <si>
-    <t>firewall should always be enabled</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>4838</t>
-  </si>
-  <si>
-    <t>fsdfw</t>
-  </si>
-  <si>
-    <t>fqdf</t>
-  </si>
-  <si>
-    <t>kfldjlk</t>
-  </si>
-  <si>
-    <t>flkdj</t>
-  </si>
-  <si>
-    <t>jan</t>
-  </si>
-  <si>
-    <t>fdjklqq</t>
+    <t>no downloads</t>
+  </si>
+  <si>
+    <t>users cannot download from the internet</t>
+  </si>
+  <si>
+    <t>gabriel</t>
+  </si>
+  <si>
+    <t>cd burning disabled</t>
+  </si>
+  <si>
+    <t>users cannot burn cd's</t>
+  </si>
+  <si>
+    <t>wim</t>
+  </si>
+  <si>
+    <t>15/02/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,23 +137,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -222,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,27 +219,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,24 +253,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,18 +428,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.6328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -544,7 +469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -561,7 +486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -578,7 +503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -586,7 +511,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -595,89 +520,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/policies.xlsx
+++ b/policies.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive - Hogeschool VIVES\Netwerkbeheer\Kwartaal3\Windows server\mutaties\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="114_{5D5673C6-3CA0-446D-B395-90C83B5CA054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{39A96F8A-203C-4B94-B875-2AFE9C6B7482}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2700" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -94,8 +100,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,15 +143,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -187,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,9 +233,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,6 +285,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,14 +478,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -469,7 +523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -486,7 +540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -503,7 +557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -520,7 +574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>

--- a/policies.xlsx
+++ b/policies.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive - Hogeschool VIVES\Netwerkbeheer\Kwartaal3\Windows server\mutaties\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="114_{5D5673C6-3CA0-446D-B395-90C83B5CA054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{39A96F8A-203C-4B94-B875-2AFE9C6B7482}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -100,8 +94,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,23 +137,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -201,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,27 +219,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,24 +253,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,18 +428,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -523,7 +469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -540,7 +486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -557,7 +503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -574,7 +520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>21</v>
       </c>
